--- a/source_data/goshawk_data_death.xlsx
+++ b/source_data/goshawk_data_death.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Merling\Desktop\Manuskipte\urban ecology\statistics\Tabellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Merling\Desktop\Manuskipte\urban ecology\Draft\submission2\accipiteR-master\source_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11115" windowHeight="6120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Raptor_SOURCE" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="63">
   <si>
     <t>age</t>
   </si>
@@ -204,6 +204,15 @@
   </si>
   <si>
     <t>Electrocaution</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
 </sst>
 </file>
@@ -579,12 +588,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G190"/>
+  <dimension ref="A1:H190"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" sqref="A1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,9 +603,10 @@
     <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -618,8 +628,11 @@
       <c r="G1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -641,8 +654,11 @@
       <c r="G2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -664,8 +680,11 @@
       <c r="G3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -687,8 +706,11 @@
       <c r="G4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -710,8 +732,11 @@
       <c r="G5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -733,8 +758,11 @@
       <c r="G6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -756,8 +784,11 @@
       <c r="G7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -779,8 +810,11 @@
       <c r="G8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -802,8 +836,11 @@
       <c r="G9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -825,8 +862,11 @@
       <c r="G10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -848,8 +888,11 @@
       <c r="G11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -871,8 +914,11 @@
       <c r="G12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -894,8 +940,11 @@
       <c r="G13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -917,8 +966,11 @@
       <c r="G14" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -940,8 +992,11 @@
       <c r="G15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -963,8 +1018,11 @@
       <c r="G16" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -986,8 +1044,11 @@
       <c r="G17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1009,8 +1070,11 @@
       <c r="G18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1032,8 +1096,11 @@
       <c r="G19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1055,8 +1122,11 @@
       <c r="G20" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1078,8 +1148,11 @@
       <c r="G21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1101,8 +1174,11 @@
       <c r="G22" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1124,8 +1200,11 @@
       <c r="G23" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1144,8 +1223,11 @@
       <c r="G24" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1167,8 +1249,11 @@
       <c r="G25" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1190,8 +1275,11 @@
       <c r="G26" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1213,8 +1301,11 @@
       <c r="G27" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1236,8 +1327,11 @@
       <c r="G28" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1259,8 +1353,11 @@
       <c r="G29" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1282,8 +1379,11 @@
       <c r="G30" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1305,8 +1405,11 @@
       <c r="G31" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1328,8 +1431,11 @@
       <c r="G32" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1351,8 +1457,11 @@
       <c r="G33" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1374,8 +1483,11 @@
       <c r="G34" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1397,8 +1509,11 @@
       <c r="G35" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1420,8 +1535,11 @@
       <c r="G36" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1443,8 +1561,11 @@
       <c r="G37" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1466,8 +1587,11 @@
       <c r="G38" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1489,8 +1613,11 @@
       <c r="G39" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1512,8 +1639,11 @@
       <c r="G40" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1535,8 +1665,11 @@
       <c r="G41" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1558,8 +1691,11 @@
       <c r="G42" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1581,8 +1717,11 @@
       <c r="G43" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1604,8 +1743,11 @@
       <c r="G44" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1627,8 +1769,11 @@
       <c r="G45" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1650,8 +1795,11 @@
       <c r="G46" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1673,8 +1821,11 @@
       <c r="G47" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1696,8 +1847,11 @@
       <c r="G48" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1719,8 +1873,11 @@
       <c r="G49" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1742,8 +1899,11 @@
       <c r="G50" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1765,8 +1925,11 @@
       <c r="G51" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1788,8 +1951,11 @@
       <c r="G52" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1811,8 +1977,11 @@
       <c r="G53" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1834,8 +2003,11 @@
       <c r="G54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1857,8 +2029,11 @@
       <c r="G55" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1880,8 +2055,11 @@
       <c r="G56" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1903,8 +2081,11 @@
       <c r="G57" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1926,8 +2107,11 @@
       <c r="G58" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1949,8 +2133,11 @@
       <c r="G59" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1972,8 +2159,11 @@
       <c r="G60" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1995,8 +2185,11 @@
       <c r="G61" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2018,8 +2211,11 @@
       <c r="G62" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2041,8 +2237,11 @@
       <c r="G63" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2064,8 +2263,11 @@
       <c r="G64" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2087,8 +2289,11 @@
       <c r="G65" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2110,8 +2315,11 @@
       <c r="G66" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2133,8 +2341,11 @@
       <c r="G67" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2156,8 +2367,11 @@
       <c r="G68" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2179,8 +2393,11 @@
       <c r="G69" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2202,8 +2419,11 @@
       <c r="G70" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2225,8 +2445,11 @@
       <c r="G71" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2248,8 +2471,11 @@
       <c r="G72" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2271,8 +2497,11 @@
       <c r="G73" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2294,8 +2523,11 @@
       <c r="G74" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2317,8 +2549,11 @@
       <c r="G75" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2340,8 +2575,11 @@
       <c r="G76" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2363,8 +2601,11 @@
       <c r="G77" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2386,8 +2627,11 @@
       <c r="G78" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2409,8 +2653,11 @@
       <c r="G79" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2432,8 +2679,11 @@
       <c r="G80" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2455,8 +2705,11 @@
       <c r="G81" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2478,8 +2731,11 @@
       <c r="G82" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2501,8 +2757,11 @@
       <c r="G83" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2524,8 +2783,11 @@
       <c r="G84" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2547,8 +2809,11 @@
       <c r="G85" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2570,8 +2835,11 @@
       <c r="G86" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2593,8 +2861,11 @@
       <c r="G87" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2616,8 +2887,11 @@
       <c r="G88" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2639,8 +2913,11 @@
       <c r="G89" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2662,8 +2939,11 @@
       <c r="G90" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2685,8 +2965,11 @@
       <c r="G91" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2708,8 +2991,11 @@
       <c r="G92" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2731,8 +3017,11 @@
       <c r="G93" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2754,8 +3043,11 @@
       <c r="G94" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2777,8 +3069,11 @@
       <c r="G95" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2800,8 +3095,11 @@
       <c r="G96" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2823,8 +3121,11 @@
       <c r="G97" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2846,8 +3147,11 @@
       <c r="G98" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2869,8 +3173,11 @@
       <c r="G99" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2892,8 +3199,11 @@
       <c r="G100" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2915,8 +3225,11 @@
       <c r="G101" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2938,8 +3251,11 @@
       <c r="G102" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2961,8 +3277,11 @@
       <c r="G103" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2984,8 +3303,11 @@
       <c r="G104" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H104" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3007,8 +3329,11 @@
       <c r="G105" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H105" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3030,8 +3355,11 @@
       <c r="G106" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H106" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3053,8 +3381,11 @@
       <c r="G107" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H107" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3076,8 +3407,11 @@
       <c r="G108" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H108" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3099,8 +3433,11 @@
       <c r="G109" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H109" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3120,8 +3457,11 @@
       <c r="G110" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H110" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3143,8 +3483,11 @@
       <c r="G111" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H111" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3166,8 +3509,11 @@
       <c r="G112" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H112" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3189,8 +3535,11 @@
       <c r="G113" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H113" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3212,8 +3561,11 @@
       <c r="G114" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H114" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3235,8 +3587,11 @@
       <c r="G115" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H115" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3258,8 +3613,11 @@
       <c r="G116" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H116" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>118</v>
       </c>
@@ -3281,8 +3639,11 @@
       <c r="G117" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H117" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>119</v>
       </c>
@@ -3304,8 +3665,11 @@
       <c r="G118" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H118" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>120</v>
       </c>
@@ -3327,8 +3691,11 @@
       <c r="G119" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H119" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>121</v>
       </c>
@@ -3350,8 +3717,11 @@
       <c r="G120" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H120" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>122</v>
       </c>
@@ -3373,8 +3743,11 @@
       <c r="G121" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H121" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>123</v>
       </c>
@@ -3396,8 +3769,11 @@
       <c r="G122" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H122" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>124</v>
       </c>
@@ -3419,8 +3795,11 @@
       <c r="G123" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H123" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>125</v>
       </c>
@@ -3442,8 +3821,11 @@
       <c r="G124" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H124" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>126</v>
       </c>
@@ -3465,8 +3847,11 @@
       <c r="G125" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H125" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>127</v>
       </c>
@@ -3488,8 +3873,11 @@
       <c r="G126" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H126" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>128</v>
       </c>
@@ -3511,8 +3899,11 @@
       <c r="G127" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H127" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>129</v>
       </c>
@@ -3534,8 +3925,11 @@
       <c r="G128" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H128" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>130</v>
       </c>
@@ -3557,8 +3951,11 @@
       <c r="G129" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H129" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>131</v>
       </c>
@@ -3577,8 +3974,11 @@
       <c r="G130" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H130" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>132</v>
       </c>
@@ -3600,8 +4000,11 @@
       <c r="G131" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H131" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>133</v>
       </c>
@@ -3623,8 +4026,11 @@
       <c r="G132" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H132" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>134</v>
       </c>
@@ -3646,8 +4052,11 @@
       <c r="G133" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H133" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>135</v>
       </c>
@@ -3669,8 +4078,11 @@
       <c r="G134" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H134" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>136</v>
       </c>
@@ -3692,8 +4104,11 @@
       <c r="G135" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H135" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>137</v>
       </c>
@@ -3715,8 +4130,11 @@
       <c r="G136" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H136" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>138</v>
       </c>
@@ -3738,8 +4156,11 @@
       <c r="G137" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H137" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>139</v>
       </c>
@@ -3761,8 +4182,11 @@
       <c r="G138" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H138" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>140</v>
       </c>
@@ -3784,8 +4208,11 @@
       <c r="G139" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H139" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>141</v>
       </c>
@@ -3807,8 +4234,11 @@
       <c r="G140" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H140" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>142</v>
       </c>
@@ -3830,8 +4260,11 @@
       <c r="G141" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H141" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>143</v>
       </c>
@@ -3853,8 +4286,11 @@
       <c r="G142" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H142" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>144</v>
       </c>
@@ -3876,8 +4312,11 @@
       <c r="G143" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H143" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>145</v>
       </c>
@@ -3899,8 +4338,11 @@
       <c r="G144" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H144" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>146</v>
       </c>
@@ -3922,8 +4364,11 @@
       <c r="G145" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H145" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>147</v>
       </c>
@@ -3945,8 +4390,11 @@
       <c r="G146" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H146" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>148</v>
       </c>
@@ -3968,8 +4416,11 @@
       <c r="G147" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H147" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>149</v>
       </c>
@@ -3991,8 +4442,11 @@
       <c r="G148" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H148" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>150</v>
       </c>
@@ -4014,8 +4468,11 @@
       <c r="G149" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H149" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>151</v>
       </c>
@@ -4037,8 +4494,11 @@
       <c r="G150" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H150" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>152</v>
       </c>
@@ -4060,8 +4520,11 @@
       <c r="G151" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H151" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>153</v>
       </c>
@@ -4083,8 +4546,11 @@
       <c r="G152" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H152" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>154</v>
       </c>
@@ -4106,8 +4572,11 @@
       <c r="G153" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H153" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>155</v>
       </c>
@@ -4129,8 +4598,11 @@
       <c r="G154" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H154" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>156</v>
       </c>
@@ -4152,8 +4624,11 @@
       <c r="G155" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H155" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>157</v>
       </c>
@@ -4175,8 +4650,11 @@
       <c r="G156" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H156" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>158</v>
       </c>
@@ -4198,8 +4676,11 @@
       <c r="G157" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H157" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>159</v>
       </c>
@@ -4221,8 +4702,11 @@
       <c r="G158" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H158" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>160</v>
       </c>
@@ -4244,8 +4728,11 @@
       <c r="G159" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H159" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>161</v>
       </c>
@@ -4267,8 +4754,11 @@
       <c r="G160" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H160" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>162</v>
       </c>
@@ -4290,8 +4780,11 @@
       <c r="G161" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H161" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>163</v>
       </c>
@@ -4313,8 +4806,11 @@
       <c r="G162" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H162" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>164</v>
       </c>
@@ -4336,8 +4832,11 @@
       <c r="G163" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H163" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>165</v>
       </c>
@@ -4359,8 +4858,11 @@
       <c r="G164" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H164" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>166</v>
       </c>
@@ -4382,8 +4884,11 @@
       <c r="G165" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H165" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>167</v>
       </c>
@@ -4405,8 +4910,11 @@
       <c r="G166" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H166" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>168</v>
       </c>
@@ -4428,8 +4936,11 @@
       <c r="G167" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H167" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>169</v>
       </c>
@@ -4451,8 +4962,11 @@
       <c r="G168" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H168" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>170</v>
       </c>
@@ -4474,8 +4988,11 @@
       <c r="G169" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H169" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>171</v>
       </c>
@@ -4497,8 +5014,11 @@
       <c r="G170" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H170" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>172</v>
       </c>
@@ -4520,8 +5040,11 @@
       <c r="G171" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H171" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>173</v>
       </c>
@@ -4543,8 +5066,11 @@
       <c r="G172" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H172" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>174</v>
       </c>
@@ -4566,8 +5092,11 @@
       <c r="G173" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H173" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>175</v>
       </c>
@@ -4589,8 +5118,11 @@
       <c r="G174" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H174" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>176</v>
       </c>
@@ -4612,8 +5144,11 @@
       <c r="G175" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H175" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>177</v>
       </c>
@@ -4635,8 +5170,11 @@
       <c r="G176" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H176" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>178</v>
       </c>
@@ -4658,8 +5196,11 @@
       <c r="G177" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H177" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>179</v>
       </c>
@@ -4681,8 +5222,11 @@
       <c r="G178" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H178" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>180</v>
       </c>
@@ -4704,8 +5248,11 @@
       <c r="G179" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H179" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>181</v>
       </c>
@@ -4727,8 +5274,11 @@
       <c r="G180" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H180" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>182</v>
       </c>
@@ -4750,8 +5300,11 @@
       <c r="G181" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H181" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>183</v>
       </c>
@@ -4773,8 +5326,11 @@
       <c r="G182" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H182" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>184</v>
       </c>
@@ -4796,8 +5352,11 @@
       <c r="G183" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H183" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>185</v>
       </c>
@@ -4819,8 +5378,11 @@
       <c r="G184" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H184" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>186</v>
       </c>
@@ -4842,8 +5404,11 @@
       <c r="G185" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H185" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>187</v>
       </c>
@@ -4865,8 +5430,11 @@
       <c r="G186" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H186" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>188</v>
       </c>
@@ -4888,8 +5456,11 @@
       <c r="G187" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H187" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>189</v>
       </c>
@@ -4911,8 +5482,11 @@
       <c r="G188" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H188" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>190</v>
       </c>
@@ -4934,8 +5508,11 @@
       <c r="G189" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H189" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>191</v>
       </c>
@@ -4956,6 +5533,9 @@
       </c>
       <c r="G190" t="s">
         <v>13</v>
+      </c>
+      <c r="H190" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/source_data/goshawk_data_death.xlsx
+++ b/source_data/goshawk_data_death.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Merling\Desktop\Manuskipte\urban ecology\Draft\submission2\accipiteR-master\source_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Merling\Desktop\Manuskipte\urban ecology\Draft\submission3\submission\accipiteR-master\source_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="64">
   <si>
     <t>age</t>
   </si>
@@ -203,9 +203,6 @@
     <t>Hypothermia</t>
   </si>
   <si>
-    <t>Electrocaution</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -213,6 +210,12 @@
   </si>
   <si>
     <t>new</t>
+  </si>
+  <si>
+    <t>Drowning</t>
+  </si>
+  <si>
+    <t>Septicaemia</t>
   </si>
 </sst>
 </file>
@@ -591,9 +594,9 @@
   <dimension ref="A1:H190"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomLeft" activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,7 +632,7 @@
         <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -655,7 +658,7 @@
         <v>53</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -681,7 +684,7 @@
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -707,7 +710,7 @@
         <v>53</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -733,7 +736,7 @@
         <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -756,10 +759,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -785,7 +788,7 @@
         <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -811,7 +814,7 @@
         <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -837,7 +840,7 @@
         <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -863,7 +866,7 @@
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -889,7 +892,7 @@
         <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -915,7 +918,7 @@
         <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -941,7 +944,7 @@
         <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -967,7 +970,7 @@
         <v>57</v>
       </c>
       <c r="H14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -993,7 +996,7 @@
         <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1019,7 +1022,7 @@
         <v>53</v>
       </c>
       <c r="H16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1045,7 +1048,7 @@
         <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1071,7 +1074,7 @@
         <v>15</v>
       </c>
       <c r="H18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1097,7 +1100,7 @@
         <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1123,7 +1126,7 @@
         <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1149,7 +1152,7 @@
         <v>16</v>
       </c>
       <c r="H21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1175,7 +1178,7 @@
         <v>16</v>
       </c>
       <c r="H22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1201,7 +1204,7 @@
         <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1224,7 +1227,7 @@
         <v>53</v>
       </c>
       <c r="H24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1250,7 +1253,7 @@
         <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1276,7 +1279,7 @@
         <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1302,7 +1305,7 @@
         <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1328,7 +1331,7 @@
         <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1354,7 +1357,7 @@
         <v>15</v>
       </c>
       <c r="H29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1380,7 +1383,7 @@
         <v>13</v>
       </c>
       <c r="H30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1406,7 +1409,7 @@
         <v>15</v>
       </c>
       <c r="H31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1432,7 +1435,7 @@
         <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1458,7 +1461,7 @@
         <v>18</v>
       </c>
       <c r="H33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1484,7 +1487,7 @@
         <v>15</v>
       </c>
       <c r="H34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1510,7 +1513,7 @@
         <v>16</v>
       </c>
       <c r="H35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1536,7 +1539,7 @@
         <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1562,7 +1565,7 @@
         <v>12</v>
       </c>
       <c r="H37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1588,7 +1591,7 @@
         <v>13</v>
       </c>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1614,7 +1617,7 @@
         <v>13</v>
       </c>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1640,7 +1643,7 @@
         <v>22</v>
       </c>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1666,7 +1669,7 @@
         <v>54</v>
       </c>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1692,7 +1695,7 @@
         <v>12</v>
       </c>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1718,7 +1721,7 @@
         <v>12</v>
       </c>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1744,7 +1747,7 @@
         <v>12</v>
       </c>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1770,7 +1773,7 @@
         <v>12</v>
       </c>
       <c r="H45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1793,10 +1796,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="H46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1822,7 +1825,7 @@
         <v>21</v>
       </c>
       <c r="H47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -1848,7 +1851,7 @@
         <v>12</v>
       </c>
       <c r="H48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -1874,7 +1877,7 @@
         <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -1900,7 +1903,7 @@
         <v>53</v>
       </c>
       <c r="H50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -1926,7 +1929,7 @@
         <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -1952,7 +1955,7 @@
         <v>53</v>
       </c>
       <c r="H52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -1978,7 +1981,7 @@
         <v>45</v>
       </c>
       <c r="H53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2004,7 +2007,7 @@
         <v>53</v>
       </c>
       <c r="H54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2030,7 +2033,7 @@
         <v>12</v>
       </c>
       <c r="H55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2056,7 +2059,7 @@
         <v>22</v>
       </c>
       <c r="H56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2082,7 +2085,7 @@
         <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2108,7 +2111,7 @@
         <v>53</v>
       </c>
       <c r="H58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2131,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="H59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2160,7 +2163,7 @@
         <v>53</v>
       </c>
       <c r="H60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2186,7 +2189,7 @@
         <v>13</v>
       </c>
       <c r="H61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2212,7 +2215,7 @@
         <v>12</v>
       </c>
       <c r="H62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2238,7 +2241,7 @@
         <v>22</v>
       </c>
       <c r="H63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2264,7 +2267,7 @@
         <v>12</v>
       </c>
       <c r="H64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -2290,7 +2293,7 @@
         <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -2316,7 +2319,7 @@
         <v>13</v>
       </c>
       <c r="H66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2342,7 +2345,7 @@
         <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -2368,7 +2371,7 @@
         <v>57</v>
       </c>
       <c r="H68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -2394,7 +2397,7 @@
         <v>57</v>
       </c>
       <c r="H69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -2420,7 +2423,7 @@
         <v>12</v>
       </c>
       <c r="H70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -2446,7 +2449,7 @@
         <v>12</v>
       </c>
       <c r="H71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -2472,7 +2475,7 @@
         <v>53</v>
       </c>
       <c r="H72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -2498,7 +2501,7 @@
         <v>44</v>
       </c>
       <c r="H73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -2524,7 +2527,7 @@
         <v>53</v>
       </c>
       <c r="H74" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -2550,7 +2553,7 @@
         <v>12</v>
       </c>
       <c r="H75" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -2576,7 +2579,7 @@
         <v>12</v>
       </c>
       <c r="H76" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -2602,7 +2605,7 @@
         <v>12</v>
       </c>
       <c r="H77" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -2628,7 +2631,7 @@
         <v>13</v>
       </c>
       <c r="H78" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -2654,7 +2657,7 @@
         <v>22</v>
       </c>
       <c r="H79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -2680,7 +2683,7 @@
         <v>12</v>
       </c>
       <c r="H80" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -2706,7 +2709,7 @@
         <v>12</v>
       </c>
       <c r="H81" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -2729,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="H82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -2758,7 +2761,7 @@
         <v>12</v>
       </c>
       <c r="H83" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -2784,7 +2787,7 @@
         <v>12</v>
       </c>
       <c r="H84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -2810,7 +2813,7 @@
         <v>12</v>
       </c>
       <c r="H85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -2836,7 +2839,7 @@
         <v>12</v>
       </c>
       <c r="H86" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -2862,7 +2865,7 @@
         <v>12</v>
       </c>
       <c r="H87" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -2888,7 +2891,7 @@
         <v>15</v>
       </c>
       <c r="H88" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -2914,7 +2917,7 @@
         <v>12</v>
       </c>
       <c r="H89" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -2940,7 +2943,7 @@
         <v>12</v>
       </c>
       <c r="H90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -2966,7 +2969,7 @@
         <v>12</v>
       </c>
       <c r="H91" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -2992,7 +2995,7 @@
         <v>13</v>
       </c>
       <c r="H92" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -3018,7 +3021,7 @@
         <v>13</v>
       </c>
       <c r="H93" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -3044,7 +3047,7 @@
         <v>12</v>
       </c>
       <c r="H94" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -3070,7 +3073,7 @@
         <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -3096,7 +3099,7 @@
         <v>13</v>
       </c>
       <c r="H96" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -3122,7 +3125,7 @@
         <v>12</v>
       </c>
       <c r="H97" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -3148,7 +3151,7 @@
         <v>22</v>
       </c>
       <c r="H98" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -3174,7 +3177,7 @@
         <v>13</v>
       </c>
       <c r="H99" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -3200,7 +3203,7 @@
         <v>12</v>
       </c>
       <c r="H100" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -3226,7 +3229,7 @@
         <v>12</v>
       </c>
       <c r="H101" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -3252,7 +3255,7 @@
         <v>12</v>
       </c>
       <c r="H102" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -3278,7 +3281,7 @@
         <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -3304,7 +3307,7 @@
         <v>16</v>
       </c>
       <c r="H104" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3330,7 +3333,7 @@
         <v>12</v>
       </c>
       <c r="H105" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3356,7 +3359,7 @@
         <v>53</v>
       </c>
       <c r="H106" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3382,7 +3385,7 @@
         <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="108" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3408,7 +3411,7 @@
         <v>24</v>
       </c>
       <c r="H108" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3434,7 +3437,7 @@
         <v>12</v>
       </c>
       <c r="H109" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3458,7 +3461,7 @@
         <v>53</v>
       </c>
       <c r="H110" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="111" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3484,7 +3487,7 @@
         <v>12</v>
       </c>
       <c r="H111" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3510,7 +3513,7 @@
         <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3536,7 +3539,7 @@
         <v>13</v>
       </c>
       <c r="H113" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3562,7 +3565,7 @@
         <v>13</v>
       </c>
       <c r="H114" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="115" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3588,7 +3591,7 @@
         <v>24</v>
       </c>
       <c r="H115" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="116" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3614,7 +3617,7 @@
         <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3640,7 +3643,7 @@
         <v>57</v>
       </c>
       <c r="H117" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3666,7 +3669,7 @@
         <v>57</v>
       </c>
       <c r="H118" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="119" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3692,7 +3695,7 @@
         <v>13</v>
       </c>
       <c r="H119" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="120" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3718,7 +3721,7 @@
         <v>13</v>
       </c>
       <c r="H120" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="121" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3744,7 +3747,7 @@
         <v>13</v>
       </c>
       <c r="H121" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -3770,7 +3773,7 @@
         <v>21</v>
       </c>
       <c r="H122" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -3796,7 +3799,7 @@
         <v>53</v>
       </c>
       <c r="H123" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -3822,7 +3825,7 @@
         <v>12</v>
       </c>
       <c r="H124" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -3848,7 +3851,7 @@
         <v>53</v>
       </c>
       <c r="H125" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -3874,7 +3877,7 @@
         <v>53</v>
       </c>
       <c r="H126" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -3900,7 +3903,7 @@
         <v>13</v>
       </c>
       <c r="H127" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -3926,7 +3929,7 @@
         <v>12</v>
       </c>
       <c r="H128" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -3952,7 +3955,7 @@
         <v>15</v>
       </c>
       <c r="H129" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -3975,7 +3978,7 @@
         <v>53</v>
       </c>
       <c r="H130" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -4001,7 +4004,7 @@
         <v>12</v>
       </c>
       <c r="H131" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -4027,7 +4030,7 @@
         <v>57</v>
       </c>
       <c r="H132" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -4053,7 +4056,7 @@
         <v>16</v>
       </c>
       <c r="H133" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -4076,10 +4079,10 @@
         <v>0</v>
       </c>
       <c r="G134" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="H134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -4105,7 +4108,7 @@
         <v>13</v>
       </c>
       <c r="H135" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -4131,7 +4134,7 @@
         <v>53</v>
       </c>
       <c r="H136" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -4157,7 +4160,7 @@
         <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -4183,7 +4186,7 @@
         <v>14</v>
       </c>
       <c r="H138" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -4209,7 +4212,7 @@
         <v>13</v>
       </c>
       <c r="H139" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -4235,7 +4238,7 @@
         <v>15</v>
       </c>
       <c r="H140" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -4261,7 +4264,7 @@
         <v>14</v>
       </c>
       <c r="H141" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -4287,7 +4290,7 @@
         <v>12</v>
       </c>
       <c r="H142" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -4313,7 +4316,7 @@
         <v>12</v>
       </c>
       <c r="H143" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -4339,7 +4342,7 @@
         <v>12</v>
       </c>
       <c r="H144" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -4365,7 +4368,7 @@
         <v>13</v>
       </c>
       <c r="H145" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -4391,7 +4394,7 @@
         <v>13</v>
       </c>
       <c r="H146" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -4417,7 +4420,7 @@
         <v>24</v>
       </c>
       <c r="H147" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -4443,7 +4446,7 @@
         <v>56</v>
       </c>
       <c r="H148" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -4469,7 +4472,7 @@
         <v>13</v>
       </c>
       <c r="H149" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -4495,7 +4498,7 @@
         <v>16</v>
       </c>
       <c r="H150" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -4521,7 +4524,7 @@
         <v>12</v>
       </c>
       <c r="H151" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -4547,7 +4550,7 @@
         <v>57</v>
       </c>
       <c r="H152" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -4573,7 +4576,7 @@
         <v>15</v>
       </c>
       <c r="H153" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -4599,7 +4602,7 @@
         <v>22</v>
       </c>
       <c r="H154" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -4625,7 +4628,7 @@
         <v>12</v>
       </c>
       <c r="H155" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -4651,7 +4654,7 @@
         <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -4677,7 +4680,7 @@
         <v>21</v>
       </c>
       <c r="H157" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -4703,7 +4706,7 @@
         <v>22</v>
       </c>
       <c r="H158" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -4729,7 +4732,7 @@
         <v>18</v>
       </c>
       <c r="H159" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -4755,7 +4758,7 @@
         <v>21</v>
       </c>
       <c r="H160" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -4781,7 +4784,7 @@
         <v>22</v>
       </c>
       <c r="H161" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -4807,7 +4810,7 @@
         <v>53</v>
       </c>
       <c r="H162" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -4833,7 +4836,7 @@
         <v>53</v>
       </c>
       <c r="H163" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -4859,7 +4862,7 @@
         <v>58</v>
       </c>
       <c r="H164" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -4885,7 +4888,7 @@
         <v>12</v>
       </c>
       <c r="H165" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -4911,7 +4914,7 @@
         <v>15</v>
       </c>
       <c r="H166" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -4937,7 +4940,7 @@
         <v>12</v>
       </c>
       <c r="H167" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -4963,7 +4966,7 @@
         <v>13</v>
       </c>
       <c r="H168" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -4989,7 +4992,7 @@
         <v>21</v>
       </c>
       <c r="H169" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -5015,7 +5018,7 @@
         <v>53</v>
       </c>
       <c r="H170" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -5041,7 +5044,7 @@
         <v>57</v>
       </c>
       <c r="H171" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -5067,7 +5070,7 @@
         <v>22</v>
       </c>
       <c r="H172" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -5093,7 +5096,7 @@
         <v>14</v>
       </c>
       <c r="H173" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -5119,7 +5122,7 @@
         <v>21</v>
       </c>
       <c r="H174" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -5145,7 +5148,7 @@
         <v>13</v>
       </c>
       <c r="H175" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -5171,7 +5174,7 @@
         <v>13</v>
       </c>
       <c r="H176" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -5197,7 +5200,7 @@
         <v>13</v>
       </c>
       <c r="H177" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -5223,7 +5226,7 @@
         <v>22</v>
       </c>
       <c r="H178" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -5249,7 +5252,7 @@
         <v>13</v>
       </c>
       <c r="H179" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -5275,7 +5278,7 @@
         <v>12</v>
       </c>
       <c r="H180" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -5301,7 +5304,7 @@
         <v>47</v>
       </c>
       <c r="H181" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -5327,7 +5330,7 @@
         <v>12</v>
       </c>
       <c r="H182" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -5353,7 +5356,7 @@
         <v>53</v>
       </c>
       <c r="H183" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -5379,7 +5382,7 @@
         <v>13</v>
       </c>
       <c r="H184" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -5405,7 +5408,7 @@
         <v>12</v>
       </c>
       <c r="H185" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -5431,7 +5434,7 @@
         <v>16</v>
       </c>
       <c r="H186" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -5457,7 +5460,7 @@
         <v>12</v>
       </c>
       <c r="H187" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -5483,7 +5486,7 @@
         <v>13</v>
       </c>
       <c r="H188" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -5509,7 +5512,7 @@
         <v>27</v>
       </c>
       <c r="H189" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -5535,7 +5538,7 @@
         <v>13</v>
       </c>
       <c r="H190" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
